--- a/MyWebApiApp/UploadFiles/Danhsach.xlsx
+++ b/MyWebApiApp/UploadFiles/Danhsach.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>Vũ thị khánh lệ</t>
+  </si>
+  <si>
+    <t>Nhận tin nhắn</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Không</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,28 +378,37 @@
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>395248002</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>123456789</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/MyWebApiApp/UploadFiles/Danhsach.xlsx
+++ b/MyWebApiApp/UploadFiles/Danhsach.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -30,16 +30,91 @@
     <t>Lê Thị Vân</t>
   </si>
   <si>
-    <t>Vũ thị khánh lệ</t>
-  </si>
-  <si>
     <t>Nhận tin nhắn</t>
   </si>
   <si>
-    <t>Có</t>
-  </si>
-  <si>
     <t>Không</t>
+  </si>
+  <si>
+    <t>0395248002</t>
+  </si>
+  <si>
+    <t>ten 1</t>
+  </si>
+  <si>
+    <t>ten 2</t>
+  </si>
+  <si>
+    <t>ten 3</t>
+  </si>
+  <si>
+    <t>ten 4</t>
+  </si>
+  <si>
+    <t>ten 5</t>
+  </si>
+  <si>
+    <t>ten 6</t>
+  </si>
+  <si>
+    <t>ten 7</t>
+  </si>
+  <si>
+    <t>ten 8</t>
+  </si>
+  <si>
+    <t>ten 10</t>
+  </si>
+  <si>
+    <t>ten 11</t>
+  </si>
+  <si>
+    <t>ten 12</t>
+  </si>
+  <si>
+    <t>ten 13</t>
+  </si>
+  <si>
+    <t>ten 14</t>
+  </si>
+  <si>
+    <t>ten 15</t>
+  </si>
+  <si>
+    <t>ten 16</t>
+  </si>
+  <si>
+    <t>ten 17</t>
+  </si>
+  <si>
+    <t>ten 18</t>
+  </si>
+  <si>
+    <t>ten 19</t>
+  </si>
+  <si>
+    <t>ten 20</t>
+  </si>
+  <si>
+    <t>ten 21</t>
+  </si>
+  <si>
+    <t>ten 22</t>
+  </si>
+  <si>
+    <t>ten 23</t>
+  </si>
+  <si>
+    <t>ten 24</t>
+  </si>
+  <si>
+    <t>Phạm Lê huy</t>
+  </si>
+  <si>
+    <t>0839079880</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -83,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,29 +462,296 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>395248002</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>123456789</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
